--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Scgb1a1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Scgb1a1-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5822016666666666</v>
+        <v>0.7255343333333334</v>
       </c>
       <c r="H2">
-        <v>1.746605</v>
+        <v>2.176603</v>
       </c>
       <c r="I2">
-        <v>0.4037404482925452</v>
+        <v>0.6805708332369251</v>
       </c>
       <c r="J2">
-        <v>0.4037404482925452</v>
+        <v>0.680570833236925</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,27 +561,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.001143250006111111</v>
+        <v>0.001424707585888889</v>
       </c>
       <c r="R2">
-        <v>0.010289250055</v>
+        <v>0.012822368273</v>
       </c>
       <c r="S2">
-        <v>0.02517901547613707</v>
+        <v>0.6805708332369251</v>
       </c>
       <c r="T2">
-        <v>0.02517901547613707</v>
+        <v>0.680570833236925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5822016666666666</v>
+        <v>0.05044199999999999</v>
       </c>
       <c r="H3">
-        <v>1.746605</v>
+        <v>0.151326</v>
       </c>
       <c r="I3">
-        <v>0.4037404482925452</v>
+        <v>0.04731596065539324</v>
       </c>
       <c r="J3">
-        <v>0.4037404482925452</v>
+        <v>0.04731596065539324</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01718853387222222</v>
+        <v>9.9051274E-05</v>
       </c>
       <c r="R3">
-        <v>0.15469680485</v>
+        <v>0.0008914614659999999</v>
       </c>
       <c r="S3">
-        <v>0.3785614328164082</v>
+        <v>0.04731596065539324</v>
       </c>
       <c r="T3">
-        <v>0.3785614328164081</v>
+        <v>0.04731596065539324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05044199999999999</v>
+        <v>0.290091</v>
       </c>
       <c r="H4">
-        <v>0.151326</v>
+        <v>0.870273</v>
       </c>
       <c r="I4">
-        <v>0.03498010544932467</v>
+        <v>0.2721132061076817</v>
       </c>
       <c r="J4">
-        <v>0.03498010544932466</v>
+        <v>0.2721132061076817</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,208 +685,22 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.905127399999997E-05</v>
+        <v>0.0005696420270000001</v>
       </c>
       <c r="R4">
-        <v>0.0008914614659999998</v>
+        <v>0.005126778243000001</v>
       </c>
       <c r="S4">
-        <v>0.002181511959453865</v>
+        <v>0.2721132061076817</v>
       </c>
       <c r="T4">
-        <v>0.002181511959453865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05044199999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.151326</v>
-      </c>
-      <c r="I5">
-        <v>0.03498010544932467</v>
-      </c>
-      <c r="J5">
-        <v>0.03498010544932466</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q5">
-        <v>0.00148921598</v>
-      </c>
-      <c r="R5">
-        <v>0.01340294382</v>
-      </c>
-      <c r="S5">
-        <v>0.0327985934898708</v>
-      </c>
-      <c r="T5">
-        <v>0.0327985934898708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.809376</v>
-      </c>
-      <c r="H6">
-        <v>2.428128</v>
-      </c>
-      <c r="I6">
-        <v>0.5612794462581302</v>
-      </c>
-      <c r="J6">
-        <v>0.5612794462581301</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.005891</v>
-      </c>
-      <c r="O6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q6">
-        <v>0.001589344672</v>
-      </c>
-      <c r="R6">
-        <v>0.014304102048</v>
-      </c>
-      <c r="S6">
-        <v>0.03500383457624464</v>
-      </c>
-      <c r="T6">
-        <v>0.03500383457624463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.809376</v>
-      </c>
-      <c r="H7">
-        <v>2.428128</v>
-      </c>
-      <c r="I7">
-        <v>0.5612794462581302</v>
-      </c>
-      <c r="J7">
-        <v>0.5612794462581301</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.02389547744</v>
-      </c>
-      <c r="R7">
-        <v>0.21505929696</v>
-      </c>
-      <c r="S7">
-        <v>0.5262756116818856</v>
-      </c>
-      <c r="T7">
-        <v>0.5262756116818855</v>
+        <v>0.2721132061076817</v>
       </c>
     </row>
   </sheetData>
